--- a/fuzzy_stability_analysis/results/fuz_stability_link/L/fuzziness_intervals.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/L/fuzziness_intervals.xlsx
@@ -27,28 +27,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="20">
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
   </si>
   <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
   </si>
   <si>
     <t>st_1_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
   </si>
   <si>
     <t>n_obs</t>
@@ -485,28 +485,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D2">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="E2">
-        <v>0.994</v>
+        <v>0.974</v>
       </c>
       <c r="F2">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G2">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H2">
-        <v>0.97</v>
+        <v>0.922</v>
       </c>
       <c r="I2">
-        <v>0.95</v>
+        <v>0.892</v>
       </c>
       <c r="J2">
         <v>12</v>
@@ -520,25 +520,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="E3">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="F3">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G3">
-        <v>0.976</v>
+        <v>0.949</v>
       </c>
       <c r="H3">
-        <v>0.97</v>
+        <v>0.921</v>
       </c>
       <c r="I3">
-        <v>0.949</v>
+        <v>0.889</v>
       </c>
       <c r="J3">
         <v>16</v>
@@ -549,28 +549,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D4">
-        <v>0.998</v>
+        <v>0.976</v>
       </c>
       <c r="E4">
-        <v>0.99</v>
+        <v>0.957</v>
       </c>
       <c r="F4">
-        <v>0.986</v>
+        <v>0.954</v>
       </c>
       <c r="G4">
-        <v>0.974</v>
+        <v>0.924</v>
       </c>
       <c r="H4">
-        <v>0.954</v>
+        <v>0.888</v>
       </c>
       <c r="I4">
-        <v>0.924</v>
+        <v>0.848</v>
       </c>
       <c r="J4">
         <v>16</v>
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C5">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="D5">
-        <v>0.995</v>
+        <v>0.965</v>
       </c>
       <c r="E5">
-        <v>0.984</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="F5">
-        <v>0.987</v>
+        <v>0.947</v>
       </c>
       <c r="G5">
-        <v>0.972</v>
+        <v>0.913</v>
       </c>
       <c r="H5">
-        <v>0.947</v>
+        <v>0.873</v>
       </c>
       <c r="I5">
-        <v>0.913</v>
+        <v>0.831</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -613,28 +613,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="C6">
-        <v>0.996</v>
+        <v>0.957</v>
       </c>
       <c r="D6">
-        <v>0.984</v>
+        <v>0.928</v>
       </c>
       <c r="E6">
-        <v>0.957</v>
+        <v>0.897</v>
       </c>
       <c r="F6">
-        <v>0.986</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G6">
-        <v>0.97</v>
+        <v>0.899</v>
       </c>
       <c r="H6">
-        <v>0.9429999999999999</v>
+        <v>0.852</v>
       </c>
       <c r="I6">
-        <v>0.899</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J6">
         <v>15</v>
@@ -645,28 +645,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.999</v>
+        <v>0.968</v>
       </c>
       <c r="C7">
-        <v>0.993</v>
+        <v>0.93</v>
       </c>
       <c r="D7">
-        <v>0.968</v>
+        <v>0.896</v>
       </c>
       <c r="E7">
-        <v>0.93</v>
+        <v>0.859</v>
       </c>
       <c r="F7">
-        <v>0.987</v>
+        <v>0.922</v>
       </c>
       <c r="G7">
-        <v>0.966</v>
+        <v>0.867</v>
       </c>
       <c r="H7">
-        <v>0.922</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="I7">
-        <v>0.867</v>
+        <v>0.768</v>
       </c>
       <c r="J7">
         <v>20</v>
@@ -677,28 +677,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.999</v>
+        <v>0.951</v>
       </c>
       <c r="C8">
-        <v>0.982</v>
+        <v>0.907</v>
       </c>
       <c r="D8">
-        <v>0.951</v>
+        <v>0.863</v>
       </c>
       <c r="E8">
-        <v>0.907</v>
+        <v>0.831</v>
       </c>
       <c r="F8">
-        <v>0.984</v>
+        <v>0.913</v>
       </c>
       <c r="G8">
-        <v>0.958</v>
+        <v>0.859</v>
       </c>
       <c r="H8">
-        <v>0.913</v>
+        <v>0.805</v>
       </c>
       <c r="I8">
-        <v>0.859</v>
+        <v>0.764</v>
       </c>
       <c r="J8">
         <v>8</v>
@@ -709,28 +709,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.944</v>
+        <v>0.861</v>
       </c>
       <c r="C9">
-        <v>0.908</v>
+        <v>0.801</v>
       </c>
       <c r="D9">
-        <v>0.861</v>
+        <v>0.746</v>
       </c>
       <c r="E9">
-        <v>0.801</v>
+        <v>0.714</v>
       </c>
       <c r="F9">
-        <v>0.9330000000000001</v>
+        <v>0.828</v>
       </c>
       <c r="G9">
-        <v>0.885</v>
+        <v>0.761</v>
       </c>
       <c r="H9">
-        <v>0.828</v>
+        <v>0.7</v>
       </c>
       <c r="I9">
-        <v>0.761</v>
+        <v>0.662</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -741,28 +741,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.894</v>
+        <v>0.762</v>
       </c>
       <c r="C10">
-        <v>0.824</v>
+        <v>0.711</v>
       </c>
       <c r="D10">
-        <v>0.762</v>
+        <v>0.666</v>
       </c>
       <c r="E10">
-        <v>0.711</v>
+        <v>0.638</v>
       </c>
       <c r="F10">
-        <v>0.886</v>
+        <v>0.741</v>
       </c>
       <c r="G10">
-        <v>0.8100000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H10">
-        <v>0.741</v>
+        <v>0.638</v>
       </c>
       <c r="I10">
-        <v>0.6860000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -773,28 +773,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.602</v>
       </c>
       <c r="C11">
-        <v>0.6879999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D11">
-        <v>0.602</v>
+        <v>0.538</v>
       </c>
       <c r="E11">
-        <v>0.5679999999999999</v>
+        <v>0.532</v>
       </c>
       <c r="F11">
-        <v>0.796</v>
+        <v>0.598</v>
       </c>
       <c r="G11">
-        <v>0.68</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H11">
-        <v>0.598</v>
+        <v>0.54</v>
       </c>
       <c r="I11">
-        <v>0.5669999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -850,28 +850,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.925</v>
+        <v>0.734</v>
       </c>
       <c r="C2">
-        <v>0.823</v>
+        <v>0.659</v>
       </c>
       <c r="D2">
-        <v>0.734</v>
+        <v>0.603</v>
       </c>
       <c r="E2">
-        <v>0.659</v>
+        <v>0.575</v>
       </c>
       <c r="F2">
-        <v>0.917</v>
+        <v>0.717</v>
       </c>
       <c r="G2">
-        <v>0.8090000000000001</v>
+        <v>0.642</v>
       </c>
       <c r="H2">
-        <v>0.717</v>
+        <v>0.589</v>
       </c>
       <c r="I2">
-        <v>0.642</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -882,28 +882,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.961</v>
+        <v>0.855</v>
       </c>
       <c r="C3">
-        <v>0.916</v>
+        <v>0.797</v>
       </c>
       <c r="D3">
-        <v>0.855</v>
+        <v>0.746</v>
       </c>
       <c r="E3">
-        <v>0.797</v>
+        <v>0.713</v>
       </c>
       <c r="F3">
-        <v>0.951</v>
+        <v>0.821</v>
       </c>
       <c r="G3">
-        <v>0.894</v>
+        <v>0.754</v>
       </c>
       <c r="H3">
-        <v>0.821</v>
+        <v>0.696</v>
       </c>
       <c r="I3">
-        <v>0.754</v>
+        <v>0.661</v>
       </c>
       <c r="J3">
         <v>9</v>
@@ -914,28 +914,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.999</v>
+        <v>0.966</v>
       </c>
       <c r="C4">
-        <v>0.992</v>
+        <v>0.923</v>
       </c>
       <c r="D4">
-        <v>0.966</v>
+        <v>0.884</v>
       </c>
       <c r="E4">
-        <v>0.923</v>
+        <v>0.844</v>
       </c>
       <c r="F4">
-        <v>0.986</v>
+        <v>0.921</v>
       </c>
       <c r="G4">
-        <v>0.966</v>
+        <v>0.863</v>
       </c>
       <c r="H4">
-        <v>0.921</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I4">
-        <v>0.863</v>
+        <v>0.76</v>
       </c>
       <c r="J4">
         <v>27</v>
@@ -946,28 +946,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.977</v>
+        <v>0.97</v>
       </c>
       <c r="C5">
-        <v>0.974</v>
+        <v>0.961</v>
       </c>
       <c r="D5">
-        <v>0.97</v>
+        <v>0.944</v>
       </c>
       <c r="E5">
-        <v>0.961</v>
+        <v>0.922</v>
       </c>
       <c r="F5">
-        <v>0.964</v>
+        <v>0.927</v>
       </c>
       <c r="G5">
-        <v>0.949</v>
+        <v>0.897</v>
       </c>
       <c r="H5">
-        <v>0.927</v>
+        <v>0.86</v>
       </c>
       <c r="I5">
-        <v>0.897</v>
+        <v>0.82</v>
       </c>
       <c r="J5">
         <v>39</v>
@@ -978,28 +978,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="D6">
-        <v>0.998</v>
+        <v>0.976</v>
       </c>
       <c r="E6">
-        <v>0.991</v>
+        <v>0.96</v>
       </c>
       <c r="F6">
-        <v>0.985</v>
+        <v>0.957</v>
       </c>
       <c r="G6">
-        <v>0.974</v>
+        <v>0.93</v>
       </c>
       <c r="H6">
-        <v>0.957</v>
+        <v>0.894</v>
       </c>
       <c r="I6">
-        <v>0.93</v>
+        <v>0.858</v>
       </c>
       <c r="J6">
         <v>21</v>
@@ -1013,25 +1013,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="E7">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="F7">
-        <v>0.98</v>
+        <v>0.972</v>
       </c>
       <c r="G7">
-        <v>0.977</v>
+        <v>0.953</v>
       </c>
       <c r="H7">
-        <v>0.972</v>
+        <v>0.926</v>
       </c>
       <c r="I7">
-        <v>0.953</v>
+        <v>0.894</v>
       </c>
       <c r="J7">
         <v>20</v>
@@ -1045,25 +1045,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E8">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="F8">
-        <v>0.979</v>
+        <v>0.976</v>
       </c>
       <c r="G8">
-        <v>0.977</v>
+        <v>0.96</v>
       </c>
       <c r="H8">
-        <v>0.976</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I8">
-        <v>0.96</v>
+        <v>0.909</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1074,28 +1074,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D9">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="E9">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F9">
-        <v>0.989</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G9">
-        <v>0.972</v>
+        <v>0.903</v>
       </c>
       <c r="H9">
-        <v>0.9379999999999999</v>
+        <v>0.862</v>
       </c>
       <c r="I9">
-        <v>0.903</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1167,28 +1167,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.9409999999999999</v>
+        <v>0.762</v>
       </c>
       <c r="C2">
-        <v>0.848</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D2">
-        <v>0.762</v>
+        <v>0.635</v>
       </c>
       <c r="E2">
-        <v>0.6889999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="F2">
-        <v>0.9320000000000001</v>
+        <v>0.741</v>
       </c>
       <c r="G2">
-        <v>0.832</v>
+        <v>0.666</v>
       </c>
       <c r="H2">
-        <v>0.741</v>
+        <v>0.612</v>
       </c>
       <c r="I2">
-        <v>0.666</v>
+        <v>0.585</v>
       </c>
       <c r="J2">
         <v>9</v>
@@ -1199,28 +1199,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.984</v>
+        <v>0.931</v>
       </c>
       <c r="C3">
-        <v>0.967</v>
+        <v>0.884</v>
       </c>
       <c r="D3">
-        <v>0.931</v>
+        <v>0.837</v>
       </c>
       <c r="E3">
-        <v>0.884</v>
+        <v>0.798</v>
       </c>
       <c r="F3">
-        <v>0.972</v>
+        <v>0.891</v>
       </c>
       <c r="G3">
-        <v>0.9419999999999999</v>
+        <v>0.831</v>
       </c>
       <c r="H3">
-        <v>0.891</v>
+        <v>0.773</v>
       </c>
       <c r="I3">
-        <v>0.831</v>
+        <v>0.727</v>
       </c>
       <c r="J3">
         <v>22</v>
@@ -1231,28 +1231,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.98</v>
+        <v>0.966</v>
       </c>
       <c r="C4">
-        <v>0.976</v>
+        <v>0.949</v>
       </c>
       <c r="D4">
-        <v>0.966</v>
+        <v>0.93</v>
       </c>
       <c r="E4">
-        <v>0.949</v>
+        <v>0.905</v>
       </c>
       <c r="F4">
-        <v>0.968</v>
+        <v>0.922</v>
       </c>
       <c r="G4">
-        <v>0.95</v>
+        <v>0.886</v>
       </c>
       <c r="H4">
-        <v>0.922</v>
+        <v>0.846</v>
       </c>
       <c r="I4">
-        <v>0.886</v>
+        <v>0.805</v>
       </c>
       <c r="J4">
         <v>47</v>
@@ -1263,28 +1263,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="D5">
-        <v>0.997</v>
+        <v>0.971</v>
       </c>
       <c r="E5">
-        <v>0.988</v>
+        <v>0.953</v>
       </c>
       <c r="F5">
-        <v>0.984</v>
+        <v>0.957</v>
       </c>
       <c r="G5">
-        <v>0.974</v>
+        <v>0.929</v>
       </c>
       <c r="H5">
-        <v>0.957</v>
+        <v>0.892</v>
       </c>
       <c r="I5">
-        <v>0.929</v>
+        <v>0.856</v>
       </c>
       <c r="J5">
         <v>26</v>
@@ -1298,25 +1298,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="E6">
-        <v>0.995</v>
+        <v>0.973</v>
       </c>
       <c r="F6">
-        <v>0.98</v>
+        <v>0.973</v>
       </c>
       <c r="G6">
-        <v>0.977</v>
+        <v>0.954</v>
       </c>
       <c r="H6">
-        <v>0.973</v>
+        <v>0.927</v>
       </c>
       <c r="I6">
-        <v>0.954</v>
+        <v>0.895</v>
       </c>
       <c r="J6">
         <v>21</v>
@@ -1335,28 +1335,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D8">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="E8">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F8">
-        <v>0.989</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G8">
-        <v>0.972</v>
+        <v>0.903</v>
       </c>
       <c r="H8">
-        <v>0.9379999999999999</v>
+        <v>0.862</v>
       </c>
       <c r="I8">
-        <v>0.903</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1436,28 +1436,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.955</v>
+        <v>0.79</v>
       </c>
       <c r="C2">
-        <v>0.875</v>
+        <v>0.714</v>
       </c>
       <c r="D2">
-        <v>0.79</v>
+        <v>0.654</v>
       </c>
       <c r="E2">
-        <v>0.714</v>
+        <v>0.622</v>
       </c>
       <c r="F2">
-        <v>0.946</v>
+        <v>0.766</v>
       </c>
       <c r="G2">
-        <v>0.857</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="H2">
-        <v>0.766</v>
+        <v>0.627</v>
       </c>
       <c r="I2">
-        <v>0.6870000000000001</v>
+        <v>0.597</v>
       </c>
       <c r="J2">
         <v>12</v>
@@ -1468,28 +1468,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.992</v>
+        <v>0.961</v>
       </c>
       <c r="C3">
-        <v>0.983</v>
+        <v>0.927</v>
       </c>
       <c r="D3">
-        <v>0.961</v>
+        <v>0.893</v>
       </c>
       <c r="E3">
-        <v>0.927</v>
+        <v>0.858</v>
       </c>
       <c r="F3">
-        <v>0.978</v>
+        <v>0.919</v>
       </c>
       <c r="G3">
-        <v>0.957</v>
+        <v>0.87</v>
       </c>
       <c r="H3">
-        <v>0.919</v>
+        <v>0.821</v>
       </c>
       <c r="I3">
-        <v>0.87</v>
+        <v>0.775</v>
       </c>
       <c r="J3">
         <v>43</v>
@@ -1500,28 +1500,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="C4">
-        <v>0.978</v>
+        <v>0.969</v>
       </c>
       <c r="D4">
-        <v>0.975</v>
+        <v>0.956</v>
       </c>
       <c r="E4">
-        <v>0.969</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="F4">
-        <v>0.967</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G4">
-        <v>0.952</v>
+        <v>0.904</v>
       </c>
       <c r="H4">
-        <v>0.9320000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="I4">
-        <v>0.904</v>
+        <v>0.832</v>
       </c>
       <c r="J4">
         <v>45</v>
@@ -1532,28 +1532,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D5">
-        <v>0.999</v>
+        <v>0.982</v>
       </c>
       <c r="E5">
-        <v>0.993</v>
+        <v>0.966</v>
       </c>
       <c r="F5">
-        <v>0.981</v>
+        <v>0.971</v>
       </c>
       <c r="G5">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H5">
-        <v>0.971</v>
+        <v>0.919</v>
       </c>
       <c r="I5">
-        <v>0.95</v>
+        <v>0.887</v>
       </c>
       <c r="J5">
         <v>25</v>
@@ -1572,28 +1572,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D7">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="E7">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F7">
-        <v>0.989</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G7">
-        <v>0.972</v>
+        <v>0.903</v>
       </c>
       <c r="H7">
-        <v>0.9379999999999999</v>
+        <v>0.862</v>
       </c>
       <c r="I7">
-        <v>0.903</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1697,28 +1697,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="D4">
-        <v>0.997</v>
+        <v>0.982</v>
       </c>
       <c r="E4">
-        <v>0.992</v>
+        <v>0.965</v>
       </c>
       <c r="F4">
-        <v>0.983</v>
+        <v>0.963</v>
       </c>
       <c r="G4">
-        <v>0.976</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="H4">
-        <v>0.963</v>
+        <v>0.91</v>
       </c>
       <c r="I4">
-        <v>0.9409999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1729,28 +1729,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D5">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="E5">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
       <c r="F5">
-        <v>0.98</v>
+        <v>0.972</v>
       </c>
       <c r="G5">
-        <v>0.977</v>
+        <v>0.953</v>
       </c>
       <c r="H5">
-        <v>0.972</v>
+        <v>0.926</v>
       </c>
       <c r="I5">
-        <v>0.953</v>
+        <v>0.896</v>
       </c>
       <c r="J5">
         <v>11</v>
@@ -1764,25 +1764,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="E6">
-        <v>0.995</v>
+        <v>0.97</v>
       </c>
       <c r="F6">
-        <v>0.982</v>
+        <v>0.969</v>
       </c>
       <c r="G6">
-        <v>0.976</v>
+        <v>0.947</v>
       </c>
       <c r="H6">
-        <v>0.969</v>
+        <v>0.919</v>
       </c>
       <c r="I6">
-        <v>0.947</v>
+        <v>0.886</v>
       </c>
       <c r="J6">
         <v>13</v>
@@ -1793,28 +1793,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D7">
-        <v>0.998</v>
+        <v>0.973</v>
       </c>
       <c r="E7">
-        <v>0.989</v>
+        <v>0.954</v>
       </c>
       <c r="F7">
-        <v>0.984</v>
+        <v>0.957</v>
       </c>
       <c r="G7">
-        <v>0.974</v>
+        <v>0.93</v>
       </c>
       <c r="H7">
-        <v>0.957</v>
+        <v>0.893</v>
       </c>
       <c r="I7">
-        <v>0.93</v>
+        <v>0.855</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -1825,28 +1825,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D8">
-        <v>0.997</v>
+        <v>0.974</v>
       </c>
       <c r="E8">
-        <v>0.989</v>
+        <v>0.953</v>
       </c>
       <c r="F8">
-        <v>0.987</v>
+        <v>0.949</v>
       </c>
       <c r="G8">
-        <v>0.973</v>
+        <v>0.917</v>
       </c>
       <c r="H8">
-        <v>0.949</v>
+        <v>0.879</v>
       </c>
       <c r="I8">
-        <v>0.917</v>
+        <v>0.838</v>
       </c>
       <c r="J8">
         <v>24</v>
@@ -1857,28 +1857,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="C9">
-        <v>0.997</v>
+        <v>0.959</v>
       </c>
       <c r="D9">
-        <v>0.985</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="E9">
-        <v>0.959</v>
+        <v>0.9</v>
       </c>
       <c r="F9">
-        <v>0.986</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="G9">
-        <v>0.971</v>
+        <v>0.897</v>
       </c>
       <c r="H9">
-        <v>0.9409999999999999</v>
+        <v>0.852</v>
       </c>
       <c r="I9">
-        <v>0.897</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J9">
         <v>22</v>
@@ -1889,28 +1889,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.966</v>
+        <v>0.931</v>
       </c>
       <c r="C10">
-        <v>0.954</v>
+        <v>0.898</v>
       </c>
       <c r="D10">
-        <v>0.931</v>
+        <v>0.862</v>
       </c>
       <c r="E10">
-        <v>0.898</v>
+        <v>0.828</v>
       </c>
       <c r="F10">
-        <v>0.954</v>
+        <v>0.891</v>
       </c>
       <c r="G10">
-        <v>0.93</v>
+        <v>0.843</v>
       </c>
       <c r="H10">
-        <v>0.891</v>
+        <v>0.795</v>
       </c>
       <c r="I10">
-        <v>0.843</v>
+        <v>0.75</v>
       </c>
       <c r="J10">
         <v>27</v>
@@ -1921,28 +1921,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.9320000000000001</v>
+        <v>0.767</v>
       </c>
       <c r="C11">
-        <v>0.852</v>
+        <v>0.698</v>
       </c>
       <c r="D11">
-        <v>0.767</v>
+        <v>0.645</v>
       </c>
       <c r="E11">
-        <v>0.698</v>
+        <v>0.615</v>
       </c>
       <c r="F11">
-        <v>0.924</v>
+        <v>0.745</v>
       </c>
       <c r="G11">
-        <v>0.835</v>
+        <v>0.674</v>
       </c>
       <c r="H11">
-        <v>0.745</v>
+        <v>0.62</v>
       </c>
       <c r="I11">
-        <v>0.674</v>
+        <v>0.592</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -2030,28 +2030,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D6">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="E6">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F6">
-        <v>0.989</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G6">
-        <v>0.972</v>
+        <v>0.903</v>
       </c>
       <c r="H6">
-        <v>0.9379999999999999</v>
+        <v>0.862</v>
       </c>
       <c r="I6">
-        <v>0.903</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2062,28 +2062,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D7">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="E7">
-        <v>0.996</v>
+        <v>0.978</v>
       </c>
       <c r="F7">
-        <v>0.981</v>
+        <v>0.972</v>
       </c>
       <c r="G7">
-        <v>0.977</v>
+        <v>0.953</v>
       </c>
       <c r="H7">
-        <v>0.972</v>
+        <v>0.926</v>
       </c>
       <c r="I7">
-        <v>0.953</v>
+        <v>0.899</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -2097,25 +2097,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="E8">
-        <v>0.994</v>
+        <v>0.971</v>
       </c>
       <c r="F8">
-        <v>0.981</v>
+        <v>0.971</v>
       </c>
       <c r="G8">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H8">
-        <v>0.971</v>
+        <v>0.922</v>
       </c>
       <c r="I8">
-        <v>0.95</v>
+        <v>0.889</v>
       </c>
       <c r="J8">
         <v>18</v>
@@ -2126,28 +2126,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.975</v>
       </c>
       <c r="E9">
-        <v>0.991</v>
+        <v>0.957</v>
       </c>
       <c r="F9">
-        <v>0.985</v>
+        <v>0.957</v>
       </c>
       <c r="G9">
-        <v>0.974</v>
+        <v>0.931</v>
       </c>
       <c r="H9">
-        <v>0.957</v>
+        <v>0.894</v>
       </c>
       <c r="I9">
-        <v>0.931</v>
+        <v>0.857</v>
       </c>
       <c r="J9">
         <v>20</v>
@@ -2158,28 +2158,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.985</v>
+        <v>0.975</v>
       </c>
       <c r="C10">
-        <v>0.982</v>
+        <v>0.961</v>
       </c>
       <c r="D10">
-        <v>0.975</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E10">
-        <v>0.961</v>
+        <v>0.916</v>
       </c>
       <c r="F10">
-        <v>0.972</v>
+        <v>0.93</v>
       </c>
       <c r="G10">
-        <v>0.956</v>
+        <v>0.895</v>
       </c>
       <c r="H10">
-        <v>0.93</v>
+        <v>0.856</v>
       </c>
       <c r="I10">
-        <v>0.895</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J10">
         <v>38</v>
@@ -2190,28 +2190,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.97</v>
+        <v>0.894</v>
       </c>
       <c r="C11">
-        <v>0.9379999999999999</v>
+        <v>0.845</v>
       </c>
       <c r="D11">
-        <v>0.894</v>
+        <v>0.802</v>
       </c>
       <c r="E11">
-        <v>0.845</v>
+        <v>0.768</v>
       </c>
       <c r="F11">
-        <v>0.959</v>
+        <v>0.858</v>
       </c>
       <c r="G11">
-        <v>0.915</v>
+        <v>0.798</v>
       </c>
       <c r="H11">
-        <v>0.858</v>
+        <v>0.745</v>
       </c>
       <c r="I11">
-        <v>0.798</v>
+        <v>0.704</v>
       </c>
       <c r="J11">
         <v>41</v>
@@ -2307,28 +2307,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D7">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="E7">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F7">
-        <v>0.989</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G7">
-        <v>0.972</v>
+        <v>0.903</v>
       </c>
       <c r="H7">
-        <v>0.9379999999999999</v>
+        <v>0.862</v>
       </c>
       <c r="I7">
-        <v>0.903</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2347,28 +2347,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D9">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="E9">
-        <v>0.996</v>
+        <v>0.976</v>
       </c>
       <c r="F9">
-        <v>0.98</v>
+        <v>0.972</v>
       </c>
       <c r="G9">
-        <v>0.977</v>
+        <v>0.954</v>
       </c>
       <c r="H9">
-        <v>0.972</v>
+        <v>0.926</v>
       </c>
       <c r="I9">
-        <v>0.954</v>
+        <v>0.897</v>
       </c>
       <c r="J9">
         <v>19</v>
@@ -2379,28 +2379,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D10">
-        <v>0.998</v>
+        <v>0.974</v>
       </c>
       <c r="E10">
-        <v>0.989</v>
+        <v>0.957</v>
       </c>
       <c r="F10">
-        <v>0.984</v>
+        <v>0.958</v>
       </c>
       <c r="G10">
-        <v>0.974</v>
+        <v>0.93</v>
       </c>
       <c r="H10">
-        <v>0.958</v>
+        <v>0.894</v>
       </c>
       <c r="I10">
-        <v>0.93</v>
+        <v>0.857</v>
       </c>
       <c r="J10">
         <v>32</v>
@@ -2411,28 +2411,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.976</v>
+        <v>0.929</v>
       </c>
       <c r="C11">
-        <v>0.956</v>
+        <v>0.896</v>
       </c>
       <c r="D11">
-        <v>0.929</v>
+        <v>0.863</v>
       </c>
       <c r="E11">
-        <v>0.896</v>
+        <v>0.832</v>
       </c>
       <c r="F11">
-        <v>0.964</v>
+        <v>0.889</v>
       </c>
       <c r="G11">
-        <v>0.9320000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="H11">
-        <v>0.889</v>
+        <v>0.794</v>
       </c>
       <c r="I11">
-        <v>0.84</v>
+        <v>0.752</v>
       </c>
       <c r="J11">
         <v>74</v>
@@ -2544,28 +2544,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D9">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="E9">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F9">
-        <v>0.989</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G9">
-        <v>0.972</v>
+        <v>0.903</v>
       </c>
       <c r="H9">
-        <v>0.9379999999999999</v>
+        <v>0.862</v>
       </c>
       <c r="I9">
-        <v>0.903</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2576,28 +2576,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D10">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="E10">
-        <v>0.994</v>
+        <v>0.969</v>
       </c>
       <c r="F10">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G10">
-        <v>0.976</v>
+        <v>0.949</v>
       </c>
       <c r="H10">
-        <v>0.97</v>
+        <v>0.919</v>
       </c>
       <c r="I10">
-        <v>0.949</v>
+        <v>0.887</v>
       </c>
       <c r="J10">
         <v>28</v>
@@ -2608,28 +2608,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.981</v>
+        <v>0.945</v>
       </c>
       <c r="C11">
-        <v>0.967</v>
+        <v>0.918</v>
       </c>
       <c r="D11">
-        <v>0.945</v>
+        <v>0.89</v>
       </c>
       <c r="E11">
-        <v>0.918</v>
+        <v>0.862</v>
       </c>
       <c r="F11">
-        <v>0.969</v>
+        <v>0.905</v>
       </c>
       <c r="G11">
-        <v>0.9419999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="H11">
-        <v>0.905</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="I11">
-        <v>0.861</v>
+        <v>0.776</v>
       </c>
       <c r="J11">
         <v>97</v>
@@ -2749,28 +2749,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="D10">
-        <v>0.996</v>
+        <v>0.976</v>
       </c>
       <c r="E10">
-        <v>0.988</v>
+        <v>0.96</v>
       </c>
       <c r="F10">
-        <v>0.984</v>
+        <v>0.958</v>
       </c>
       <c r="G10">
-        <v>0.975</v>
+        <v>0.93</v>
       </c>
       <c r="H10">
-        <v>0.958</v>
+        <v>0.897</v>
       </c>
       <c r="I10">
-        <v>0.93</v>
+        <v>0.863</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -2781,28 +2781,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.985</v>
+        <v>0.956</v>
       </c>
       <c r="C11">
-        <v>0.973</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D11">
-        <v>0.956</v>
+        <v>0.909</v>
       </c>
       <c r="E11">
-        <v>0.9340000000000001</v>
+        <v>0.884</v>
       </c>
       <c r="F11">
-        <v>0.971</v>
+        <v>0.918</v>
       </c>
       <c r="G11">
-        <v>0.949</v>
+        <v>0.879</v>
       </c>
       <c r="H11">
-        <v>0.918</v>
+        <v>0.838</v>
       </c>
       <c r="I11">
-        <v>0.879</v>
+        <v>0.799</v>
       </c>
       <c r="J11">
         <v>122</v>
@@ -2858,28 +2858,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.665</v>
+        <v>0.505</v>
       </c>
       <c r="C2">
+        <v>0.555</v>
+      </c>
+      <c r="D2">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.57</v>
+      </c>
+      <c r="F2">
+        <v>0.51</v>
+      </c>
+      <c r="G2">
+        <v>0.555</v>
+      </c>
+      <c r="H2">
         <v>0.5600000000000001</v>
       </c>
-      <c r="D2">
-        <v>0.505</v>
-      </c>
-      <c r="E2">
-        <v>0.555</v>
-      </c>
-      <c r="F2">
-        <v>0.664</v>
-      </c>
-      <c r="G2">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="H2">
-        <v>0.51</v>
-      </c>
       <c r="I2">
-        <v>0.555</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2890,28 +2890,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.845</v>
+        <v>0.63</v>
       </c>
       <c r="C3">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="D3">
-        <v>0.63</v>
+        <v>0.505</v>
       </c>
       <c r="E3">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="F3">
-        <v>0.84</v>
+        <v>0.625</v>
       </c>
       <c r="G3">
-        <v>0.721</v>
+        <v>0.552</v>
       </c>
       <c r="H3">
-        <v>0.625</v>
+        <v>0.515</v>
       </c>
       <c r="I3">
-        <v>0.552</v>
+        <v>0.522</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2930,28 +2930,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.888</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="C5">
-        <v>0.775</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>0.6820000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="E5">
-        <v>0.6</v>
+        <v>0.525</v>
       </c>
       <c r="F5">
-        <v>0.881</v>
+        <v>0.67</v>
       </c>
       <c r="G5">
-        <v>0.763</v>
+        <v>0.593</v>
       </c>
       <c r="H5">
-        <v>0.67</v>
+        <v>0.549</v>
       </c>
       <c r="I5">
-        <v>0.593</v>
+        <v>0.531</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -2962,28 +2962,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.862</v>
+        <v>0.74</v>
       </c>
       <c r="C6">
-        <v>0.795</v>
+        <v>0.702</v>
       </c>
       <c r="D6">
-        <v>0.74</v>
+        <v>0.657</v>
       </c>
       <c r="E6">
-        <v>0.702</v>
+        <v>0.631</v>
       </c>
       <c r="F6">
-        <v>0.855</v>
+        <v>0.723</v>
       </c>
       <c r="G6">
-        <v>0.782</v>
+        <v>0.68</v>
       </c>
       <c r="H6">
-        <v>0.723</v>
+        <v>0.632</v>
       </c>
       <c r="I6">
-        <v>0.68</v>
+        <v>0.606</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -2994,28 +2994,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.953</v>
+        <v>0.846</v>
       </c>
       <c r="C7">
-        <v>0.907</v>
+        <v>0.784</v>
       </c>
       <c r="D7">
-        <v>0.846</v>
+        <v>0.731</v>
       </c>
       <c r="E7">
-        <v>0.784</v>
+        <v>0.695</v>
       </c>
       <c r="F7">
-        <v>0.9429999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G7">
-        <v>0.885</v>
+        <v>0.745</v>
       </c>
       <c r="H7">
-        <v>0.8149999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="I7">
-        <v>0.745</v>
+        <v>0.649</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -3026,28 +3026,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.999</v>
+        <v>0.944</v>
       </c>
       <c r="C8">
-        <v>0.979</v>
+        <v>0.892</v>
       </c>
       <c r="D8">
-        <v>0.944</v>
+        <v>0.848</v>
       </c>
       <c r="E8">
-        <v>0.892</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F8">
-        <v>0.985</v>
+        <v>0.904</v>
       </c>
       <c r="G8">
-        <v>0.955</v>
+        <v>0.843</v>
       </c>
       <c r="H8">
-        <v>0.904</v>
+        <v>0.787</v>
       </c>
       <c r="I8">
-        <v>0.843</v>
+        <v>0.745</v>
       </c>
       <c r="J8">
         <v>8</v>
@@ -3058,28 +3058,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.999</v>
+        <v>0.969</v>
       </c>
       <c r="C9">
-        <v>0.993</v>
+        <v>0.931</v>
       </c>
       <c r="D9">
-        <v>0.969</v>
+        <v>0.897</v>
       </c>
       <c r="E9">
-        <v>0.931</v>
+        <v>0.858</v>
       </c>
       <c r="F9">
-        <v>0.987</v>
+        <v>0.924</v>
       </c>
       <c r="G9">
-        <v>0.966</v>
+        <v>0.869</v>
       </c>
       <c r="H9">
-        <v>0.924</v>
+        <v>0.82</v>
       </c>
       <c r="I9">
-        <v>0.869</v>
+        <v>0.77</v>
       </c>
       <c r="J9">
         <v>22</v>
@@ -3090,28 +3090,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="C10">
-        <v>0.998</v>
+        <v>0.976</v>
       </c>
       <c r="D10">
-        <v>0.992</v>
+        <v>0.955</v>
       </c>
       <c r="E10">
-        <v>0.976</v>
+        <v>0.931</v>
       </c>
       <c r="F10">
-        <v>0.987</v>
+        <v>0.946</v>
       </c>
       <c r="G10">
-        <v>0.972</v>
+        <v>0.909</v>
       </c>
       <c r="H10">
-        <v>0.946</v>
+        <v>0.868</v>
       </c>
       <c r="I10">
-        <v>0.909</v>
+        <v>0.826</v>
       </c>
       <c r="J10">
         <v>39</v>
@@ -3122,28 +3122,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D11">
-        <v>0.999</v>
+        <v>0.982</v>
       </c>
       <c r="E11">
-        <v>0.993</v>
+        <v>0.966</v>
       </c>
       <c r="F11">
-        <v>0.983</v>
+        <v>0.965</v>
       </c>
       <c r="G11">
-        <v>0.976</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="H11">
-        <v>0.965</v>
+        <v>0.91</v>
       </c>
       <c r="I11">
-        <v>0.9409999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="J11">
         <v>42</v>
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.845</v>
+        <v>0.63</v>
       </c>
       <c r="C2">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="D2">
-        <v>0.63</v>
+        <v>0.505</v>
       </c>
       <c r="E2">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="F2">
-        <v>0.84</v>
+        <v>0.625</v>
       </c>
       <c r="G2">
-        <v>0.721</v>
+        <v>0.552</v>
       </c>
       <c r="H2">
-        <v>0.625</v>
+        <v>0.515</v>
       </c>
       <c r="I2">
-        <v>0.552</v>
+        <v>0.522</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3231,28 +3231,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.876</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="C3">
-        <v>0.774</v>
+        <v>0.63</v>
       </c>
       <c r="D3">
-        <v>0.6870000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="E3">
-        <v>0.63</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F3">
-        <v>0.869</v>
+        <v>0.675</v>
       </c>
       <c r="G3">
-        <v>0.762</v>
+        <v>0.617</v>
       </c>
       <c r="H3">
-        <v>0.675</v>
+        <v>0.579</v>
       </c>
       <c r="I3">
-        <v>0.617</v>
+        <v>0.554</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -3263,28 +3263,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.976</v>
+        <v>0.824</v>
       </c>
       <c r="C4">
-        <v>0.899</v>
+        <v>0.764</v>
       </c>
       <c r="D4">
-        <v>0.824</v>
+        <v>0.706</v>
       </c>
       <c r="E4">
-        <v>0.764</v>
+        <v>0.67</v>
       </c>
       <c r="F4">
-        <v>0.967</v>
+        <v>0.796</v>
       </c>
       <c r="G4">
-        <v>0.88</v>
+        <v>0.728</v>
       </c>
       <c r="H4">
-        <v>0.796</v>
+        <v>0.666</v>
       </c>
       <c r="I4">
-        <v>0.728</v>
+        <v>0.632</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -3295,28 +3295,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.998</v>
+        <v>0.894</v>
       </c>
       <c r="C5">
-        <v>0.961</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D5">
-        <v>0.894</v>
+        <v>0.739</v>
       </c>
       <c r="E5">
-        <v>0.8110000000000001</v>
+        <v>0.702</v>
       </c>
       <c r="F5">
-        <v>0.987</v>
+        <v>0.856</v>
       </c>
       <c r="G5">
-        <v>0.9360000000000001</v>
+        <v>0.767</v>
       </c>
       <c r="H5">
-        <v>0.856</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="I5">
-        <v>0.767</v>
+        <v>0.653</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -3327,28 +3327,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.956</v>
+        <v>0.927</v>
       </c>
       <c r="C6">
-        <v>0.947</v>
+        <v>0.9</v>
       </c>
       <c r="D6">
-        <v>0.927</v>
+        <v>0.869</v>
       </c>
       <c r="E6">
-        <v>0.9</v>
+        <v>0.839</v>
       </c>
       <c r="F6">
-        <v>0.944</v>
+        <v>0.889</v>
       </c>
       <c r="G6">
-        <v>0.923</v>
+        <v>0.847</v>
       </c>
       <c r="H6">
-        <v>0.889</v>
+        <v>0.802</v>
       </c>
       <c r="I6">
-        <v>0.847</v>
+        <v>0.76</v>
       </c>
       <c r="J6">
         <v>21</v>
@@ -3359,28 +3359,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="C7">
-        <v>0.994</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D7">
-        <v>0.977</v>
+        <v>0.91</v>
       </c>
       <c r="E7">
-        <v>0.9419999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="F7">
-        <v>0.986</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="G7">
-        <v>0.968</v>
+        <v>0.883</v>
       </c>
       <c r="H7">
-        <v>0.9340000000000001</v>
+        <v>0.834</v>
       </c>
       <c r="I7">
-        <v>0.883</v>
+        <v>0.787</v>
       </c>
       <c r="J7">
         <v>20</v>
@@ -3391,28 +3391,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C8">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="D8">
-        <v>0.996</v>
+        <v>0.969</v>
       </c>
       <c r="E8">
-        <v>0.986</v>
+        <v>0.946</v>
       </c>
       <c r="F8">
-        <v>0.987</v>
+        <v>0.948</v>
       </c>
       <c r="G8">
-        <v>0.972</v>
+        <v>0.915</v>
       </c>
       <c r="H8">
-        <v>0.948</v>
+        <v>0.875</v>
       </c>
       <c r="I8">
-        <v>0.915</v>
+        <v>0.834</v>
       </c>
       <c r="J8">
         <v>28</v>
@@ -3423,28 +3423,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.975</v>
       </c>
       <c r="E9">
-        <v>0.99</v>
+        <v>0.956</v>
       </c>
       <c r="F9">
-        <v>0.985</v>
+        <v>0.955</v>
       </c>
       <c r="G9">
-        <v>0.974</v>
+        <v>0.926</v>
       </c>
       <c r="H9">
-        <v>0.955</v>
+        <v>0.889</v>
       </c>
       <c r="I9">
-        <v>0.926</v>
+        <v>0.851</v>
       </c>
       <c r="J9">
         <v>17</v>
@@ -3458,25 +3458,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="E10">
-        <v>0.995</v>
+        <v>0.974</v>
       </c>
       <c r="F10">
-        <v>0.98</v>
+        <v>0.973</v>
       </c>
       <c r="G10">
-        <v>0.977</v>
+        <v>0.954</v>
       </c>
       <c r="H10">
-        <v>0.973</v>
+        <v>0.927</v>
       </c>
       <c r="I10">
-        <v>0.954</v>
+        <v>0.896</v>
       </c>
       <c r="J10">
         <v>22</v>
@@ -3487,28 +3487,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="D11">
-        <v>0.997</v>
+        <v>0.982</v>
       </c>
       <c r="E11">
-        <v>0.992</v>
+        <v>0.965</v>
       </c>
       <c r="F11">
-        <v>0.983</v>
+        <v>0.963</v>
       </c>
       <c r="G11">
-        <v>0.976</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="H11">
-        <v>0.963</v>
+        <v>0.91</v>
       </c>
       <c r="I11">
-        <v>0.9409999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -3564,28 +3564,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.907</v>
+        <v>0.7</v>
       </c>
       <c r="C2">
-        <v>0.793</v>
+        <v>0.623</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>0.574</v>
       </c>
       <c r="E2">
-        <v>0.623</v>
+        <v>0.551</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="G2">
-        <v>0.781</v>
+        <v>0.612</v>
       </c>
       <c r="H2">
-        <v>0.6870000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="I2">
-        <v>0.612</v>
+        <v>0.547</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -3596,28 +3596,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.919</v>
+        <v>0.772</v>
       </c>
       <c r="C3">
-        <v>0.846</v>
+        <v>0.728</v>
       </c>
       <c r="D3">
-        <v>0.772</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="E3">
-        <v>0.728</v>
+        <v>0.65</v>
       </c>
       <c r="F3">
-        <v>0.911</v>
+        <v>0.75</v>
       </c>
       <c r="G3">
-        <v>0.829</v>
+        <v>0.698</v>
       </c>
       <c r="H3">
-        <v>0.75</v>
+        <v>0.648</v>
       </c>
       <c r="I3">
-        <v>0.698</v>
+        <v>0.617</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -3628,28 +3628,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.998</v>
+        <v>0.924</v>
       </c>
       <c r="C4">
-        <v>0.972</v>
+        <v>0.854</v>
       </c>
       <c r="D4">
-        <v>0.924</v>
+        <v>0.798</v>
       </c>
       <c r="E4">
-        <v>0.854</v>
+        <v>0.759</v>
       </c>
       <c r="F4">
-        <v>0.987</v>
+        <v>0.882</v>
       </c>
       <c r="G4">
-        <v>0.947</v>
+        <v>0.802</v>
       </c>
       <c r="H4">
-        <v>0.882</v>
+        <v>0.736</v>
       </c>
       <c r="I4">
-        <v>0.802</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="J4">
         <v>8</v>
@@ -3660,28 +3660,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.967</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C5">
-        <v>0.958</v>
+        <v>0.899</v>
       </c>
       <c r="D5">
-        <v>0.9340000000000001</v>
+        <v>0.862</v>
       </c>
       <c r="E5">
-        <v>0.899</v>
+        <v>0.827</v>
       </c>
       <c r="F5">
-        <v>0.955</v>
+        <v>0.893</v>
       </c>
       <c r="G5">
-        <v>0.9330000000000001</v>
+        <v>0.844</v>
       </c>
       <c r="H5">
-        <v>0.893</v>
+        <v>0.795</v>
       </c>
       <c r="I5">
-        <v>0.844</v>
+        <v>0.749</v>
       </c>
       <c r="J5">
         <v>28</v>
@@ -3692,28 +3692,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C6">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="D6">
-        <v>0.996</v>
+        <v>0.969</v>
       </c>
       <c r="E6">
-        <v>0.984</v>
+        <v>0.944</v>
       </c>
       <c r="F6">
-        <v>0.987</v>
+        <v>0.949</v>
       </c>
       <c r="G6">
-        <v>0.972</v>
+        <v>0.916</v>
       </c>
       <c r="H6">
-        <v>0.949</v>
+        <v>0.877</v>
       </c>
       <c r="I6">
-        <v>0.916</v>
+        <v>0.835</v>
       </c>
       <c r="J6">
         <v>31</v>
@@ -3724,28 +3724,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="D7">
-        <v>0.996</v>
+        <v>0.967</v>
       </c>
       <c r="E7">
-        <v>0.986</v>
+        <v>0.947</v>
       </c>
       <c r="F7">
-        <v>0.985</v>
+        <v>0.953</v>
       </c>
       <c r="G7">
-        <v>0.974</v>
+        <v>0.923</v>
       </c>
       <c r="H7">
-        <v>0.953</v>
+        <v>0.883</v>
       </c>
       <c r="I7">
-        <v>0.923</v>
+        <v>0.844</v>
       </c>
       <c r="J7">
         <v>20</v>
@@ -3759,25 +3759,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="E8">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="F8">
-        <v>0.981</v>
+        <v>0.971</v>
       </c>
       <c r="G8">
-        <v>0.976</v>
+        <v>0.951</v>
       </c>
       <c r="H8">
-        <v>0.971</v>
+        <v>0.922</v>
       </c>
       <c r="I8">
-        <v>0.951</v>
+        <v>0.891</v>
       </c>
       <c r="J8">
         <v>19</v>
@@ -3788,28 +3788,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D9">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="E9">
-        <v>0.996</v>
+        <v>0.979</v>
       </c>
       <c r="F9">
-        <v>0.98</v>
+        <v>0.972</v>
       </c>
       <c r="G9">
-        <v>0.977</v>
+        <v>0.954</v>
       </c>
       <c r="H9">
-        <v>0.972</v>
+        <v>0.928</v>
       </c>
       <c r="I9">
-        <v>0.954</v>
+        <v>0.9</v>
       </c>
       <c r="J9">
         <v>9</v>
@@ -3820,28 +3820,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D10">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="E10">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F10">
-        <v>0.989</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G10">
-        <v>0.972</v>
+        <v>0.903</v>
       </c>
       <c r="H10">
-        <v>0.9379999999999999</v>
+        <v>0.862</v>
       </c>
       <c r="I10">
-        <v>0.903</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J10">
         <v>1</v>
